--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  HERRADURA  ABRIL    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  HERRADURA  ABRIL    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="224">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -879,15 +879,6 @@
     <t>8414 E</t>
   </si>
   <si>
-    <t>8335 E</t>
-  </si>
-  <si>
-    <t>8436 E</t>
-  </si>
-  <si>
-    <t>8526 E</t>
-  </si>
-  <si>
     <t>NOMINA #13</t>
   </si>
   <si>
@@ -919,6 +910,33 @@
   </si>
   <si>
     <t>ABRIO  EN AGOSTO 2021</t>
+  </si>
+  <si>
+    <t>8579 E</t>
+  </si>
+  <si>
+    <t>8592 E</t>
+  </si>
+  <si>
+    <t>8594 E</t>
+  </si>
+  <si>
+    <t>8728 E</t>
+  </si>
+  <si>
+    <t>8729 E</t>
+  </si>
+  <si>
+    <t>8745 E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847 E </t>
+  </si>
+  <si>
+    <t>8882 E</t>
+  </si>
+  <si>
+    <t>8903 E</t>
   </si>
 </sst>
 </file>
@@ -2876,6 +2894,8 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3026,8 +3046,6 @@
     <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5054,23 +5072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5080,21 +5098,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="305" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5109,14 +5127,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="308"/>
+      <c r="H4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="310"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5126,11 +5144,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="310"/>
-      <c r="R4" s="304"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6935,11 +6953,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="327">
+      <c r="M49" s="329">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="312">
+      <c r="N49" s="314">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6974,8 +6992,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="328"/>
-      <c r="N50" s="313"/>
+      <c r="M50" s="330"/>
+      <c r="N50" s="315"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7067,29 +7085,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="314" t="s">
+      <c r="H55" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="315"/>
+      <c r="I55" s="317"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="316">
+      <c r="K55" s="318">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="317"/>
-      <c r="M55" s="318">
+      <c r="L55" s="319"/>
+      <c r="M55" s="320">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="319"/>
+      <c r="N55" s="321"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="311" t="s">
+      <c r="D56" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="311"/>
+      <c r="E56" s="313"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7100,22 +7118,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="329" t="s">
+      <c r="D57" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="329"/>
+      <c r="E57" s="331"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="330" t="s">
+      <c r="I57" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="331"/>
-      <c r="K57" s="332">
+      <c r="J57" s="333"/>
+      <c r="K57" s="334">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="333"/>
+      <c r="L57" s="335"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7146,11 +7164,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="334">
+      <c r="K59" s="336">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="335"/>
+      <c r="L59" s="337"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7167,22 +7185,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="336" t="s">
+      <c r="D61" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="337"/>
+      <c r="E61" s="339"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="338" t="s">
+      <c r="I61" s="340" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="339"/>
-      <c r="K61" s="340">
+      <c r="J61" s="341"/>
+      <c r="K61" s="342">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="340"/>
+      <c r="L61" s="342"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8707,23 +8725,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -8733,21 +8751,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="305" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8762,14 +8780,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="308"/>
+      <c r="H4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="310"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -8779,11 +8797,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="343"/>
-      <c r="R4" s="341"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="343"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10584,11 +10602,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="327">
+      <c r="M45" s="329">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="312">
+      <c r="N45" s="314">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -10618,8 +10636,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="313"/>
+      <c r="M46" s="330"/>
+      <c r="N46" s="315"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -10711,29 +10729,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="314" t="s">
+      <c r="H51" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="315"/>
+      <c r="I51" s="317"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="316">
+      <c r="K51" s="318">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="317"/>
-      <c r="M51" s="318">
+      <c r="L51" s="319"/>
+      <c r="M51" s="320">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="319"/>
+      <c r="N51" s="321"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="311" t="s">
+      <c r="D52" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="311"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -10744,22 +10762,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="329" t="s">
+      <c r="D53" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="329"/>
+      <c r="E53" s="331"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="330" t="s">
+      <c r="I53" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="331"/>
-      <c r="K53" s="332">
+      <c r="J53" s="333"/>
+      <c r="K53" s="334">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="333"/>
+      <c r="L53" s="335"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -10790,11 +10808,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="334">
+      <c r="K55" s="336">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="335"/>
+      <c r="L55" s="337"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -10811,22 +10829,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="336" t="s">
+      <c r="D57" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="337"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="338" t="s">
+      <c r="I57" s="340" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="339"/>
-      <c r="K57" s="340">
+      <c r="J57" s="341"/>
+      <c r="K57" s="342">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="342"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12430,23 +12448,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -12456,21 +12474,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="305" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12485,14 +12503,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="308"/>
+      <c r="H4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="310"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -12502,11 +12520,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="343"/>
-      <c r="R4" s="341"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="343"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14299,11 +14317,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="327">
+      <c r="M45" s="329">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="312">
+      <c r="N45" s="314">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -14333,8 +14351,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="313"/>
+      <c r="M46" s="330"/>
+      <c r="N46" s="315"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -14426,29 +14444,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="314" t="s">
+      <c r="H51" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="315"/>
+      <c r="I51" s="317"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="316">
+      <c r="K51" s="318">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="317"/>
-      <c r="M51" s="318">
+      <c r="L51" s="319"/>
+      <c r="M51" s="320">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="319"/>
+      <c r="N51" s="321"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="311" t="s">
+      <c r="D52" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="311"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -14459,22 +14477,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="329" t="s">
+      <c r="D53" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="329"/>
+      <c r="E53" s="331"/>
       <c r="F53" s="131">
         <v>-2879446.04</v>
       </c>
-      <c r="I53" s="330" t="s">
+      <c r="I53" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="331"/>
-      <c r="K53" s="344">
+      <c r="J53" s="333"/>
+      <c r="K53" s="346">
         <f>F55+F56+F57</f>
         <v>-42041.369999999937</v>
       </c>
-      <c r="L53" s="345"/>
+      <c r="L53" s="347"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -14505,11 +14523,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="346">
+      <c r="K55" s="348">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="347"/>
+      <c r="L55" s="349"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -14526,22 +14544,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="336" t="s">
+      <c r="D57" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="337"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="348" t="s">
+      <c r="I57" s="350" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="349"/>
-      <c r="K57" s="350">
+      <c r="J57" s="351"/>
+      <c r="K57" s="352">
         <f>K53+K55</f>
         <v>-272595.91999999993</v>
       </c>
-      <c r="L57" s="350"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16059,11 +16077,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16088,50 +16106,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="324" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="323"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="353" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="354"/>
+      <c r="J2" s="303" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="304"/>
       <c r="L2" s="253"/>
       <c r="M2" s="7"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="328"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="351" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16146,14 +16164,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="307" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="306"/>
-      <c r="H4" s="307" t="s">
+      <c r="F4" s="308"/>
+      <c r="H4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="308"/>
+      <c r="I4" s="310"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -16163,11 +16181,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="344" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="343"/>
-      <c r="R4" s="352"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="354"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16244,7 +16262,7 @@
         <v>45017</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L6" s="259">
         <v>10739</v>
@@ -16296,7 +16314,7 @@
         <v>45018</v>
       </c>
       <c r="K7" s="102" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L7" s="259">
         <v>15000</v>
@@ -16330,7 +16348,7 @@
         <v>1705</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E8" s="27">
         <v>45019</v>
@@ -16585,7 +16603,7 @@
         <v>45024</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L13" s="259">
         <v>7239</v>
@@ -16917,7 +16935,7 @@
         <v>45031</v>
       </c>
       <c r="K20" s="262" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L20" s="263">
         <v>4700</v>
@@ -17015,7 +17033,7 @@
         <v>45033</v>
       </c>
       <c r="K22" s="302" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L22" s="269">
         <v>10000</v>
@@ -17255,7 +17273,7 @@
         <v>45038</v>
       </c>
       <c r="K27" s="275" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L27" s="276">
         <v>9000</v>
@@ -17433,7 +17451,7 @@
         <v>1894</v>
       </c>
       <c r="D31" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E31" s="27">
         <v>45042</v>
@@ -17593,7 +17611,7 @@
         <v>45045</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L34" s="284">
         <v>9352</v>
@@ -17720,7 +17738,7 @@
         <v>3900</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E37" s="27">
         <v>45048</v>
@@ -18024,11 +18042,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="327">
+      <c r="M45" s="329">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="312">
+      <c r="N45" s="314">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -18058,8 +18076,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="313"/>
+      <c r="M46" s="330"/>
+      <c r="N46" s="315"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -18151,29 +18169,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="314" t="s">
+      <c r="H51" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="315"/>
+      <c r="I51" s="317"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="316">
+      <c r="K51" s="318">
         <f>I49+L49</f>
         <v>69956.5</v>
       </c>
-      <c r="L51" s="317"/>
-      <c r="M51" s="318">
+      <c r="L51" s="319"/>
+      <c r="M51" s="320">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="319"/>
+      <c r="N51" s="321"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="311" t="s">
+      <c r="D52" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="311"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2534527.5</v>
@@ -18184,22 +18202,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="329" t="s">
+      <c r="D53" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="329"/>
+      <c r="E53" s="331"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="330" t="s">
+      <c r="I53" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="331"/>
-      <c r="K53" s="344">
+      <c r="J53" s="333"/>
+      <c r="K53" s="346">
         <f>F55+F56+F57</f>
-        <v>2534527.5</v>
-      </c>
-      <c r="L53" s="345"/>
+        <v>2929076.2</v>
+      </c>
+      <c r="L53" s="347"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -18230,11 +18248,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="346">
+      <c r="K55" s="348">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="347"/>
+      <c r="L55" s="349"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -18248,23 +18266,25 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="150"/>
-      <c r="D57" s="336" t="s">
+      <c r="C57" s="150">
+        <v>45050</v>
+      </c>
+      <c r="D57" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="337"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="151">
-        <v>0</v>
-      </c>
-      <c r="I57" s="348" t="s">
+        <v>394548.7</v>
+      </c>
+      <c r="I57" s="350" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="349"/>
-      <c r="K57" s="350">
+      <c r="J57" s="351"/>
+      <c r="K57" s="352">
         <f>K53+K55</f>
-        <v>2193335.16</v>
-      </c>
-      <c r="L57" s="350"/>
+        <v>2587883.8600000003</v>
+      </c>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18425,8 +18445,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19040,131 +19060,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="181">
-        <v>45042</v>
+        <v>45044</v>
       </c>
       <c r="B35" s="182" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C35" s="149">
-        <v>512</v>
+        <v>4532.6000000000004</v>
       </c>
       <c r="D35" s="181"/>
       <c r="E35" s="149"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>1759685.1300000001</v>
+        <v>1763705.7300000002</v>
       </c>
       <c r="J35" s="149">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="181">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B36" s="182" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C36" s="149">
-        <v>19096.3</v>
+        <v>73444.52</v>
       </c>
       <c r="D36" s="181"/>
       <c r="E36" s="149"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>1778781.4300000002</v>
+        <v>1837150.2500000002</v>
       </c>
       <c r="J36" s="133">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="181">
         <v>45044</v>
       </c>
       <c r="B37" s="182" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C37" s="149">
-        <v>59000.24</v>
+        <v>71980.740000000005</v>
       </c>
       <c r="D37" s="181"/>
       <c r="E37" s="149"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>1909130.9900000002</v>
       </c>
       <c r="J37" s="187">
         <f>SUM(J29:J36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="149"/>
+    <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="181">
+        <v>45045</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="149">
+        <v>44290.2</v>
+      </c>
       <c r="D38" s="181"/>
       <c r="E38" s="149"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="149"/>
+        <v>1953421.1900000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="181">
+        <v>45045</v>
+      </c>
+      <c r="B39" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="149">
+        <v>126876.82</v>
+      </c>
       <c r="D39" s="181"/>
       <c r="E39" s="149"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="149"/>
+        <v>2080298.0100000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="181">
+        <v>45045</v>
+      </c>
+      <c r="B40" s="182" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="149">
+        <v>3454.2</v>
+      </c>
       <c r="D40" s="181"/>
       <c r="E40" s="100"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="149"/>
+        <v>2083752.2100000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="181">
+        <v>45047</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="149">
+        <v>21412.3</v>
+      </c>
       <c r="D41" s="181"/>
       <c r="E41" s="100"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="185"/>
-      <c r="B42" s="186"/>
-      <c r="C42" s="149"/>
+        <v>2105164.5100000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="185">
+        <v>45048</v>
+      </c>
+      <c r="B42" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="149">
+        <v>6509.5</v>
+      </c>
       <c r="D42" s="185"/>
       <c r="E42" s="100"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2111674.0100000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
-      <c r="B43" s="247"/>
-      <c r="C43" s="149"/>
+      <c r="A43" s="245">
+        <v>45048</v>
+      </c>
+      <c r="B43" s="247" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="149">
+        <v>9543.92</v>
+      </c>
       <c r="D43" s="192"/>
       <c r="E43" s="100"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19175,7 +19231,7 @@
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19186,7 +19242,7 @@
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19197,7 +19253,7 @@
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19208,7 +19264,7 @@
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19219,7 +19275,7 @@
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19230,7 +19286,7 @@
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19241,7 +19297,7 @@
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19252,7 +19308,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19263,7 +19319,7 @@
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19274,7 +19330,7 @@
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19285,7 +19341,7 @@
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19296,7 +19352,7 @@
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19307,7 +19363,7 @@
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19318,7 +19374,7 @@
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19329,7 +19385,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19340,7 +19396,7 @@
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19351,7 +19407,7 @@
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19362,7 +19418,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19373,7 +19429,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19384,7 +19440,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19395,7 +19451,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19406,7 +19462,7 @@
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19417,7 +19473,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19428,7 +19484,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19439,7 +19495,7 @@
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19450,7 +19506,7 @@
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19461,7 +19517,7 @@
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19472,7 +19528,7 @@
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19483,7 +19539,7 @@
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19494,7 +19550,7 @@
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19505,7 +19561,7 @@
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19516,7 +19572,7 @@
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19527,7 +19583,7 @@
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19538,7 +19594,7 @@
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19551,7 +19607,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -19559,7 +19615,7 @@
       <c r="B79" s="202"/>
       <c r="C79" s="203">
         <f>SUM(C3:C78)</f>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -19568,7 +19624,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>1837781.6700000002</v>
+        <v>2121217.9300000002</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  HERRADURA  ABRIL    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #04  ABRIL 2023/BALANCE  HERRADURA  ABRIL    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="230">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -937,6 +937,24 @@
   </si>
   <si>
     <t>8903 E</t>
+  </si>
+  <si>
+    <t>9014 E</t>
+  </si>
+  <si>
+    <t>9026 E</t>
+  </si>
+  <si>
+    <t>9172 E</t>
+  </si>
+  <si>
+    <t>Recibo POQ8LB1801N1</t>
+  </si>
+  <si>
+    <t>COMISION BANCO</t>
+  </si>
+  <si>
+    <t>LUZ Bimestre</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2896,6 +2914,69 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2947,69 +3028,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3045,6 +3063,27 @@
     </xf>
     <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5072,23 +5111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="318"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -5098,21 +5137,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5127,14 +5166,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="H4" s="309" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="310"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -5144,11 +5183,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="333"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6953,11 +6992,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="329">
+      <c r="M49" s="324">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="314">
+      <c r="N49" s="335">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6992,8 +7031,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="330"/>
-      <c r="N50" s="315"/>
+      <c r="M50" s="325"/>
+      <c r="N50" s="336"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -7085,29 +7124,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="316" t="s">
+      <c r="H55" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="317"/>
+      <c r="I55" s="338"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="318">
+      <c r="K55" s="339">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="319"/>
-      <c r="M55" s="320">
+      <c r="L55" s="340"/>
+      <c r="M55" s="341">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="321"/>
+      <c r="N55" s="342"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="313" t="s">
+      <c r="D56" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="313"/>
+      <c r="E56" s="334"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -7118,22 +7157,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="331" t="s">
+      <c r="D57" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="331"/>
+      <c r="E57" s="305"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="332" t="s">
+      <c r="I57" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="333"/>
-      <c r="K57" s="334">
+      <c r="J57" s="307"/>
+      <c r="K57" s="308">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="335"/>
+      <c r="L57" s="309"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -7164,11 +7203,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="336">
+      <c r="K59" s="310">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="337"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -7185,22 +7224,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="338" t="s">
+      <c r="D61" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="339"/>
+      <c r="E61" s="313"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="340" t="s">
+      <c r="I61" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="341"/>
-      <c r="K61" s="342">
+      <c r="J61" s="315"/>
+      <c r="K61" s="316">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="342"/>
+      <c r="L61" s="316"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -7325,18 +7364,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -7346,6 +7373,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8725,23 +8764,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="318"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -8751,21 +8790,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8780,14 +8819,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="H4" s="309" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="310"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -10602,11 +10641,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="329">
+      <c r="M45" s="324">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="314">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -10636,8 +10675,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="330"/>
-      <c r="N46" s="315"/>
+      <c r="M46" s="325"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -10729,29 +10768,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="316" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="317"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="318">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="319"/>
-      <c r="M51" s="320">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="321"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="313" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -10762,22 +10801,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="331" t="s">
+      <c r="D53" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="331"/>
+      <c r="E53" s="305"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="332" t="s">
+      <c r="I53" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="333"/>
-      <c r="K53" s="334">
+      <c r="J53" s="307"/>
+      <c r="K53" s="308">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="335"/>
+      <c r="L53" s="309"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -10808,11 +10847,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="336">
+      <c r="K55" s="310">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="337"/>
+      <c r="L55" s="311"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -10829,22 +10868,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="338" t="s">
+      <c r="D57" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="340" t="s">
+      <c r="I57" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="341"/>
-      <c r="K57" s="342">
+      <c r="J57" s="315"/>
+      <c r="K57" s="316">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="342"/>
+      <c r="L57" s="316"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -10969,18 +11008,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10990,6 +11017,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12448,23 +12487,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="318"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -12474,21 +12513,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="326" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12503,14 +12542,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="H4" s="309" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="310"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14317,11 +14356,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="329">
+      <c r="M45" s="324">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="314">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -14351,8 +14390,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="330"/>
-      <c r="N46" s="315"/>
+      <c r="M46" s="325"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -14444,29 +14483,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="316" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="317"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="318">
+      <c r="K51" s="339">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="319"/>
-      <c r="M51" s="320">
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="321"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="313" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -14477,17 +14516,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="331" t="s">
+      <c r="D53" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="331"/>
+      <c r="E53" s="305"/>
       <c r="F53" s="131">
         <v>-2879446.04</v>
       </c>
-      <c r="I53" s="332" t="s">
+      <c r="I53" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="333"/>
+      <c r="J53" s="307"/>
       <c r="K53" s="346">
         <f>F55+F56+F57</f>
         <v>-42041.369999999937</v>
@@ -14544,10 +14583,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="338" t="s">
+      <c r="D57" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -14684,6 +14723,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14693,18 +14744,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16077,11 +16116,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16106,23 +16145,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="322"/>
-      <c r="C1" s="324" t="s">
+      <c r="B1" s="317"/>
+      <c r="C1" s="319" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="323"/>
+      <c r="B2" s="318"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -16135,17 +16174,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327"/>
+      <c r="B3" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="322"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="328"/>
+      <c r="I3" s="323"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -16164,14 +16203,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="H4" s="309" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="310"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -17901,7 +17940,7 @@
       </c>
       <c r="S40" s="37"/>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -17911,9 +17950,15 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="231"/>
-      <c r="L41" s="281"/>
+      <c r="J41" s="86">
+        <v>45026</v>
+      </c>
+      <c r="K41" s="358" t="s">
+        <v>227</v>
+      </c>
+      <c r="L41" s="281">
+        <v>1225.1199999999999</v>
+      </c>
       <c r="M41" s="33">
         <v>0</v>
       </c>
@@ -17943,9 +17988,15 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="231"/>
-      <c r="L42" s="281"/>
+      <c r="J42" s="86">
+        <v>45033</v>
+      </c>
+      <c r="K42" s="231" t="s">
+        <v>108</v>
+      </c>
+      <c r="L42" s="281">
+        <v>1392</v>
+      </c>
       <c r="M42" s="33">
         <v>0</v>
       </c>
@@ -17975,9 +18026,13 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
       <c r="I43" s="91"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="281"/>
+      <c r="J43" s="86">
+        <v>45033</v>
+      </c>
+      <c r="K43" s="359"/>
+      <c r="L43" s="281">
+        <v>43500</v>
+      </c>
       <c r="M43" s="33">
         <v>0</v>
       </c>
@@ -17987,11 +18042,11 @@
       <c r="O43" s="35"/>
       <c r="P43" s="240">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43500</v>
       </c>
       <c r="Q43" s="241">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43500</v>
       </c>
       <c r="R43" s="242">
         <v>0</v>
@@ -18008,9 +18063,15 @@
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
       <c r="I44" s="91"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="281"/>
+      <c r="J44" s="86">
+        <v>45042</v>
+      </c>
+      <c r="K44" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="L44" s="281">
+        <v>1031.47</v>
+      </c>
       <c r="M44" s="92">
         <v>0</v>
       </c>
@@ -18018,11 +18079,11 @@
       <c r="O44" s="35"/>
       <c r="P44" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1031.47</v>
       </c>
       <c r="Q44" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1031.47</v>
       </c>
       <c r="R44" s="13">
         <v>0</v>
@@ -18039,20 +18100,26 @@
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="96"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="329">
+      <c r="J45" s="86">
+        <v>45050</v>
+      </c>
+      <c r="K45" s="360" t="s">
+        <v>228</v>
+      </c>
+      <c r="L45" s="281">
+        <v>1884.05</v>
+      </c>
+      <c r="M45" s="324">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="314">
+      <c r="N45" s="335">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>2567419</v>
+        <v>2569303.0499999998</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
@@ -18073,11 +18140,17 @@
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="96"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="281"/>
-      <c r="M46" s="330"/>
-      <c r="N46" s="315"/>
+      <c r="J46" s="86">
+        <v>45037</v>
+      </c>
+      <c r="K46" s="361" t="s">
+        <v>229</v>
+      </c>
+      <c r="L46" s="281">
+        <v>34015</v>
+      </c>
+      <c r="M46" s="325"/>
+      <c r="N46" s="336"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -18151,7 +18224,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>66030</v>
+        <v>149077.64000000001</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -18169,32 +18242,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="316" t="s">
+      <c r="H51" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="317"/>
+      <c r="I51" s="338"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="318">
+      <c r="K51" s="339">
         <f>I49+L49</f>
-        <v>69956.5</v>
-      </c>
-      <c r="L51" s="319"/>
-      <c r="M51" s="320">
+        <v>153004.14000000001</v>
+      </c>
+      <c r="L51" s="340"/>
+      <c r="M51" s="341">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="321"/>
+      <c r="N51" s="342"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="313" t="s">
+      <c r="D52" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="334"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2534527.5</v>
+        <v>2451479.86</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -18202,20 +18275,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="331" t="s">
+      <c r="D53" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="331"/>
+      <c r="E53" s="305"/>
       <c r="F53" s="131">
-        <v>0</v>
-      </c>
-      <c r="I53" s="332" t="s">
+        <v>-2383939.5299999998</v>
+      </c>
+      <c r="I53" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="333"/>
+      <c r="J53" s="307"/>
       <c r="K53" s="346">
         <f>F55+F56+F57</f>
-        <v>2929076.2</v>
+        <v>462089.03000000009</v>
       </c>
       <c r="L53" s="347"/>
       <c r="P53" s="36"/>
@@ -18241,7 +18314,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>2534527.5</v>
+        <v>67540.330000000075</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -18269,22 +18342,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="338" t="s">
+      <c r="D57" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="350" t="s">
-        <v>170</v>
-      </c>
-      <c r="J57" s="351"/>
-      <c r="K57" s="352">
+      <c r="I57" s="355" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="356"/>
+      <c r="K57" s="357">
         <f>K53+K55</f>
-        <v>2587883.8600000003</v>
-      </c>
-      <c r="L57" s="352"/>
+        <v>120896.69000000006</v>
+      </c>
+      <c r="L57" s="357"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -18409,18 +18482,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18430,6 +18491,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18445,8 +18518,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19224,36 +19297,54 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="246"/>
-      <c r="B44" s="248"/>
-      <c r="C44" s="149"/>
+      <c r="A44" s="246">
+        <v>45049</v>
+      </c>
+      <c r="B44" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="149">
+        <v>91322.1</v>
+      </c>
       <c r="D44" s="192"/>
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2212540.0300000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="246"/>
-      <c r="B45" s="248"/>
-      <c r="C45" s="149"/>
+      <c r="A45" s="246">
+        <v>45049</v>
+      </c>
+      <c r="B45" s="248" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="149">
+        <v>35946.300000000003</v>
+      </c>
       <c r="D45" s="192"/>
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2248486.33</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="246"/>
-      <c r="B46" s="248"/>
-      <c r="C46" s="149"/>
+      <c r="A46" s="246">
+        <v>45050</v>
+      </c>
+      <c r="B46" s="248" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="149">
+        <v>135453.20000000001</v>
+      </c>
       <c r="D46" s="192"/>
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19264,7 +19355,7 @@
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19275,7 +19366,7 @@
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19286,7 +19377,7 @@
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19297,7 +19388,7 @@
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19308,7 +19399,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19319,7 +19410,7 @@
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19330,7 +19421,7 @@
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19341,7 +19432,7 @@
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19352,7 +19443,7 @@
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19363,7 +19454,7 @@
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19374,7 +19465,7 @@
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19385,7 +19476,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19396,7 +19487,7 @@
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19407,7 +19498,7 @@
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19418,7 +19509,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19429,7 +19520,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19440,7 +19531,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19451,7 +19542,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19462,7 +19553,7 @@
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19473,7 +19564,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19484,7 +19575,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19495,7 +19586,7 @@
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19506,7 +19597,7 @@
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19517,7 +19608,7 @@
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19528,7 +19619,7 @@
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19539,7 +19630,7 @@
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19550,7 +19641,7 @@
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19561,7 +19652,7 @@
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19572,7 +19663,7 @@
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19583,7 +19674,7 @@
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -19594,7 +19685,7 @@
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19607,7 +19698,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -19615,7 +19706,7 @@
       <c r="B79" s="202"/>
       <c r="C79" s="203">
         <f>SUM(C3:C78)</f>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -19624,7 +19715,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>2121217.9300000002</v>
+        <v>2383939.5300000003</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
